--- a/biology/Histoire de la zoologie et de la botanique/José_María_Velasco_Gómez/José_María_Velasco_Gómez.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/José_María_Velasco_Gómez/José_María_Velasco_Gómez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Velasco_G%C3%B3mez</t>
+          <t>José_María_Velasco_Gómez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José María Velasco y Gómez Obregón, né le 6 juillet 1840 à Temascalcingo dans l'État de Mexico et mort le 26 août 1912 à Villa de Guadalupe Hidalgo à Mexico, est un peintre mexicain. Il est considéré comme un des plus grands paysagistes du XIXe siècle et a donné à la peinture de son pays un statut international.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Velasco_G%C3%B3mez</t>
+          <t>José_María_Velasco_Gómez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enfance
-José María Velasco est né le 6 juillet 1840 à Temascalcingo, État de México, selon l'extrait de baptême, et reçoit pour noms José María Tranquilino Francisco de Jesús Velasco y Gómez-Obregón. Il est le fils aîné d'une fratrie de cinq enfants. Fils de Felipe Velasco et María Antonia Gómez-Obregón de Velasco. En 1849 sa famille déménage à Mexico, où meurt son père Felipe peu de mois après leur arrivée durant une épidémie de choléra qui frappe la ville en 1850.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José María Velasco est né le 6 juillet 1840 à Temascalcingo, État de México, selon l'extrait de baptême, et reçoit pour noms José María Tranquilino Francisco de Jesús Velasco y Gómez-Obregón. Il est le fils aîné d'une fratrie de cinq enfants. Fils de Felipe Velasco et María Antonia Gómez-Obregón de Velasco. En 1849 sa famille déménage à Mexico, où meurt son père Felipe peu de mois après leur arrivée durant une épidémie de choléra qui frappe la ville en 1850.
 Après la mort de son père, José María doit travailler dans une boutique de vêtements en même temps qu'il étudie au Colegio Lancasteriano de Santa Catarina Mártir, où il prend goût pour le dessin.
-Premières années à San Carlos
-Velasco va ensuite le soir à l'école des beaux-arts de l'académie de San Carlos ; il y est l'élève de l'artiste italien Eugenio Landesio[1].
-Vie professionnelle et familiale
-Dernières années</t>
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Mar%C3%ADa_Velasco_G%C3%B3mez</t>
+          <t>José_María_Velasco_Gómez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Premières années à San Carlos</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Velasco va ensuite le soir à l'école des beaux-arts de l'académie de San Carlos ; il y est l'élève de l'artiste italien Eugenio Landesio.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>José_María_Velasco_Gómez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jos%C3%A9_Mar%C3%ADa_Velasco_G%C3%B3mez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Compléments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
